--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkvats\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Statewise Total" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Cordinates" sheetId="3" r:id="rId6"/>
+    <sheet name="Statewise Total" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Cordinates" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjSO3tthuhd3W2D0tCQiQJqhcRF9Q=="/>
@@ -159,9 +167,6 @@
     <t>Andaman and Nicobar Islands</t>
   </si>
   <si>
-    <t>27.03.2020 at 09:15 AM</t>
-  </si>
-  <si>
     <t>Discharged</t>
   </si>
   <si>
@@ -184,63 +189,79 @@
   </si>
   <si>
     <t>Total number of confirmed cases in India</t>
+  </si>
+  <si>
+    <t>29.03.2020 at 10:00 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Poppins"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Open Sans"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF38302E"/>
-      <name val="Poppins"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF38302E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -262,12 +283,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1F1F1"/>
-        <bgColor rgb="FFF1F1F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
@@ -278,9 +293,27 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
-    <border/>
+  <borders count="28">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
@@ -294,6 +327,7 @@
       <bottom style="thin">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -305,17 +339,8 @@
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD4D5D6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD4D5D6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -328,6 +353,20 @@
         <color rgb="FFDDDDDD"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D5D6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD4D5D6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -339,17 +378,8 @@
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD4D5D6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD4D5D6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD4D5D6"/>
-      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -362,20 +392,20 @@
         <color rgb="FFD4D5D6"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color rgb="FFD4D5D6"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color rgb="FFD4D5D6"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color rgb="FFD4D5D6"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -384,20 +414,11 @@
       <right style="medium">
         <color rgb="FFD4D5D6"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD4D5D6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD4D5D6"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FFD4D5D6"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -410,6 +431,20 @@
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D5D6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD4D5D6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD4D5D6"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -418,20 +453,11 @@
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD4D5D6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD4D5D6"/>
-      </right>
-      <bottom style="thick">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -444,6 +470,20 @@
       <bottom style="thick">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4D5D6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD4D5D6"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -458,6 +498,7 @@
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -472,6 +513,7 @@
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -486,6 +528,7 @@
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -500,19 +543,23 @@
       <bottom style="medium">
         <color rgb="FFD4D5D6"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FFDDDDDD"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FFD4D5D6"/>
       </top>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FFD4D5D6"/>
       </right>
@@ -522,6 +569,7 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -536,6 +584,7 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -550,115 +599,218 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -848,28 +1000,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.56"/>
-    <col customWidth="1" min="2" max="2" width="13.67"/>
-    <col customWidth="1" min="3" max="3" width="25.33"/>
-    <col customWidth="1" min="4" max="4" width="26.89"/>
-    <col customWidth="1" min="5" max="5" width="14.11"/>
-    <col customWidth="1" min="6" max="26" width="11.0"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -888,557 +1042,557 @@
       <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="28">
+        <v>14</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="29">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="28">
+        <v>9</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29">
+        <v>8</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="C3" s="17">
-        <v>12.0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="28">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="29">
+        <v>38</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>6</v>
+      </c>
+      <c r="F7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="29">
+        <v>52</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
-        <v>7.0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="28">
+        <v>19</v>
+      </c>
+      <c r="D10" s="28">
+        <v>14</v>
+      </c>
+      <c r="E10" s="28">
+        <v>12</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="28">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="C7" s="17">
-        <v>35.0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29">
+        <v>76</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>5</v>
+      </c>
+      <c r="F13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="17">
-        <v>42.0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="28">
+        <v>174</v>
+      </c>
+      <c r="D14" s="28">
+        <v>8</v>
+      </c>
+      <c r="E14" s="28">
+        <v>15</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="C10" s="10">
-        <v>16.0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>14.0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="B15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="29">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="C11" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="17">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="B16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="28">
+        <v>30</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="29">
+        <v>183</v>
+      </c>
+      <c r="D17" s="29">
+        <v>3</v>
+      </c>
+      <c r="E17" s="29">
+        <v>25</v>
+      </c>
+      <c r="F17" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="C13" s="17">
-        <v>55.0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="C14" s="10">
-        <v>129.0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="17">
-        <v>13.0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="32">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
-        <v>20.0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="B22" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="28">
+        <v>38</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="C17" s="17">
-        <v>127.0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>15.0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="B23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="29">
+        <v>52</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>3</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="C18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="B24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="28">
+        <v>36</v>
+      </c>
+      <c r="D24" s="28">
+        <v>6</v>
+      </c>
+      <c r="E24" s="28">
+        <v>2</v>
+      </c>
+      <c r="F24" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="32">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="29">
+        <v>56</v>
+      </c>
+      <c r="D25" s="29">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="C19" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="10">
-        <v>33.0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="17">
-        <v>39.0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10">
-        <v>23.0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="17">
-        <v>35.0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="C26" s="28">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="32">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="17">
-        <v>40.0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="29">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29">
+        <v>11</v>
+      </c>
+      <c r="F27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="34">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="C28" s="35">
+        <v>17</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2408,778 +2562,774 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.56"/>
+    <col min="1" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>3</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" ht="29.25" customHeight="1">
-      <c r="A3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="J6" s="15">
+        <v>2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="C3" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>5</v>
       </c>
-      <c r="J3" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="I7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>14</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="15">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>7</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="11">
+        <v>26</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>3</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>8</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="15">
+        <v>44</v>
+      </c>
+      <c r="K10" s="15">
+        <v>3</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>11</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="B14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15">
+        <v>2</v>
+      </c>
+      <c r="L14" s="15">
+        <v>3</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="15">
+        <v>7</v>
+      </c>
+      <c r="K16" s="15">
+        <v>9</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="16">
+        <v>104</v>
+      </c>
+      <c r="D18" s="16">
+        <v>22</v>
+      </c>
+      <c r="E18" s="16">
+        <v>13</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15">
+        <v>16</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="15">
+        <v>4</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H19" s="11">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="11">
         <v>10</v>
       </c>
-      <c r="J4" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="20">
-        <v>14.0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="22">
-        <v>16.0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H20" s="15">
         <v>18</v>
       </c>
-      <c r="C6" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="I20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="15">
+        <v>18</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
+        <v>9</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H21" s="11">
         <v>19</v>
       </c>
-      <c r="C7" s="20">
-        <v>22.0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>14.0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="24">
-        <v>36.0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="26">
-        <v>15.0</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="19">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>8.0</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="26">
-        <v>44.0</v>
-      </c>
-      <c r="K10" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="L10" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M10" s="26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>9.0</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>11.0</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="26">
-        <v>12.0</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="K14" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="L14" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M14" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="19">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>13.0</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="K16" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="L16" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="19">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="I21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>15.0</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="45.0" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29">
-        <v>104.0</v>
-      </c>
-      <c r="D18" s="29">
-        <v>22.0</v>
-      </c>
-      <c r="E18" s="29">
-        <v>13.0</v>
-      </c>
-      <c r="F18" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>16.0</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="H19" s="22">
-        <v>17.0</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="22">
-        <v>10.0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="H20" s="26">
-        <v>18.0</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="26">
-        <v>18.0</v>
-      </c>
-      <c r="K20" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="M20" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="H21" s="22">
-        <v>19.0</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="H22" s="26">
-        <v>20.0</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H22" s="15">
+        <v>20</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4150,6 +4300,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="M1:M2"/>
@@ -4160,26 +4311,24 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4198,10 +4347,10 @@
         <v>11.66702557</v>
       </c>
       <c r="C2" s="1">
-        <v>92.73598262</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>92.735982620000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4212,40 +4361,40 @@
         <v>78.57002559</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>27.10039878</v>
+        <v>27.100398779999999</v>
       </c>
       <c r="C4" s="1">
         <v>93.61660071</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>26.7499809</v>
+        <v>26.749980900000001</v>
       </c>
       <c r="C5" s="1">
-        <v>94.21666744</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>94.216667439999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>25.78541445</v>
+        <v>25.785414450000001</v>
       </c>
       <c r="C6" s="1">
-        <v>87.4799727</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>87.479972700000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4253,32 +4402,32 @@
         <v>30.71999697</v>
       </c>
       <c r="C7" s="1">
-        <v>76.78000565</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>76.780005650000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>22.09042035</v>
+        <v>22.090420349999999</v>
       </c>
       <c r="C8" s="1">
-        <v>82.15998734</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>82.159987340000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>20.26657819</v>
+        <v>20.266578190000001</v>
       </c>
       <c r="C9" s="1">
-        <v>73.0166178</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>73.016617800000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4286,10 +4435,10 @@
         <v>28.6699929</v>
       </c>
       <c r="C10" s="1">
-        <v>77.23000403</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>77.230004030000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4297,21 +4446,21 @@
         <v>15.491997</v>
       </c>
       <c r="C11" s="1">
-        <v>73.81800065</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>73.818000650000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>28.45000633</v>
+        <v>28.450006330000001</v>
       </c>
       <c r="C12" s="1">
-        <v>77.01999101</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>77.019991009999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4319,32 +4468,32 @@
         <v>31.10002545</v>
       </c>
       <c r="C13" s="1">
-        <v>77.16659704</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>77.166597039999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>33.45</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>76.24</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>76.239999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>23.80039349</v>
+        <v>23.800393490000001</v>
       </c>
       <c r="C15" s="1">
         <v>86.41998572</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4352,10 +4501,10 @@
         <v>12.57038129</v>
       </c>
       <c r="C16" s="1">
-        <v>76.91999711</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>76.919997109999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,32 +4512,32 @@
         <v>8.900372741</v>
       </c>
       <c r="C17" s="1">
-        <v>76.56999263</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>76.569992630000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>10.56257331</v>
+        <v>10.562573309999999</v>
       </c>
       <c r="C18" s="1">
-        <v>72.63686717</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>72.636867170000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>21.30039105</v>
+        <v>21.300391050000002</v>
       </c>
       <c r="C19" s="1">
-        <v>76.13001949</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>76.130019489999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4396,76 +4545,76 @@
         <v>19.25023195</v>
       </c>
       <c r="C20" s="1">
-        <v>73.16017493</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>73.160174929999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>24.79997072</v>
+        <v>24.799970720000001</v>
       </c>
       <c r="C21" s="1">
         <v>93.95001705</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>25.57049217</v>
+        <v>25.570492170000001</v>
       </c>
       <c r="C22" s="1">
-        <v>91.8800142</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>91.880014200000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>23.71039899</v>
+        <v>23.710398990000002</v>
       </c>
       <c r="C23" s="1">
-        <v>92.72001461</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>92.720014610000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>25.6669979</v>
+        <v>25.666997899999998</v>
       </c>
       <c r="C24" s="1">
-        <v>94.11657019</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>94.116570190000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>19.82042971</v>
+        <v>19.820429709999999</v>
       </c>
       <c r="C25" s="1">
-        <v>85.90001746</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>85.900017460000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>11.93499371</v>
+        <v>11.934993710000001</v>
       </c>
       <c r="C26" s="1">
-        <v>79.83000037</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>79.830000369999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4473,21 +4622,21 @@
         <v>31.51997398</v>
       </c>
       <c r="C27" s="1">
-        <v>75.98000281</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>75.980002810000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>26.44999921</v>
+        <v>26.449999210000001</v>
       </c>
       <c r="C28" s="1">
-        <v>74.63998124</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>74.639981239999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -4495,21 +4644,21 @@
         <v>27.3333303</v>
       </c>
       <c r="C29" s="1">
-        <v>88.6166475</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>88.616647499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>18.1124</v>
+        <v>18.112400000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>79.0193</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>79.019300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -4517,54 +4666,54 @@
         <v>12.92038576</v>
       </c>
       <c r="C31" s="1">
-        <v>79.15004187</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>79.150041869999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>23.83540428</v>
+        <v>23.835404279999999</v>
       </c>
       <c r="C32" s="1">
-        <v>91.27999914</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>91.279999140000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>27.59998069</v>
+        <v>27.599980689999999</v>
       </c>
       <c r="C33" s="1">
-        <v>78.05000565</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>78.050005650000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>30.32040895</v>
+        <v>30.320408950000001</v>
       </c>
       <c r="C34" s="1">
-        <v>78.05000565</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>78.050005650000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>22.58039044</v>
+        <v>22.580390439999999</v>
       </c>
       <c r="C35" s="1">
-        <v>88.32994665</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>88.329946649999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -4576,6 +4725,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -191,14 +191,14 @@
     <t>Total number of confirmed cases in India</t>
   </si>
   <si>
-    <t>29.03.2020 at 10:00 AM</t>
+    <t>31 March 2020, 20:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,12 +251,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF38302E"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Robotoregular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F514F"/>
+      <name val="Robotoregular"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +309,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF3F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -618,51 +628,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFAAAAAA"/>
       </left>
       <right style="medium">
@@ -677,17 +642,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +724,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -760,38 +753,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +990,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1018,9 +998,10 @@
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="26" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
@@ -1034,35 +1015,35 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="30">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28">
-        <v>14</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="C2" s="35">
+        <v>40</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="F2" s="31">
+      <c r="E2" s="35">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
         <v>0</v>
       </c>
       <c r="G2" s="37" t="s">
@@ -1070,523 +1051,523 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="32">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="33">
+        <v>10</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31">
+        <v>15</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="30">
+      <c r="C5" s="33">
+        <v>13</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="31">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="33">
+        <v>97</v>
+      </c>
+      <c r="D7" s="33">
+        <v>6</v>
+      </c>
+      <c r="E7" s="33">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="31">
+        <v>5</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="33">
+        <v>73</v>
+      </c>
+      <c r="D9" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="E9" s="33">
+        <v>6</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31">
+        <v>40</v>
+      </c>
+      <c r="D10" s="31">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="33">
+        <v>3</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="31">
+        <v>54</v>
+      </c>
+      <c r="D12" s="31">
+        <v>2</v>
+      </c>
+      <c r="E12" s="31">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="33">
+        <v>83</v>
+      </c>
+      <c r="D13" s="33">
+        <v>5</v>
+      </c>
+      <c r="E13" s="33">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31">
+        <v>234</v>
+      </c>
+      <c r="D14" s="31">
+        <v>19</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
         <v>8</v>
       </c>
-      <c r="C4" s="28">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="33">
+        <v>13</v>
+      </c>
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="31">
+        <v>47</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="33">
+        <v>216</v>
+      </c>
+      <c r="D17" s="33">
+        <v>39</v>
+      </c>
+      <c r="E17" s="33">
         <v>9</v>
       </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="F17" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="32">
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="31">
+        <v>3</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="33">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="31">
+        <v>41</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="33">
+        <v>74</v>
+      </c>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="31">
+        <v>74</v>
+      </c>
+      <c r="D24" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="29">
-        <v>8</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="30">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="33">
+        <v>79</v>
+      </c>
+      <c r="D25" s="33">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
         <v>10</v>
       </c>
-      <c r="C6" s="28">
-        <v>6</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="32">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="29">
-        <v>38</v>
-      </c>
-      <c r="D7" s="29">
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="31">
+        <v>7</v>
+      </c>
+      <c r="D26" s="31">
+        <v>2</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="29">
-        <v>6</v>
-      </c>
-      <c r="F7" s="33">
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="33">
+        <v>101</v>
+      </c>
+      <c r="D27" s="33">
+        <v>14</v>
+      </c>
+      <c r="E27" s="33">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="31">
+        <v>26</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="30">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="32">
-        <v>8</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="29">
-        <v>52</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="30">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="28">
-        <v>19</v>
-      </c>
-      <c r="D10" s="28">
-        <v>14</v>
-      </c>
-      <c r="E10" s="28">
-        <v>12</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="32">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="29">
-        <v>3</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="30">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="28">
-        <v>31</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="32">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="29">
-        <v>76</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>5</v>
-      </c>
-      <c r="F13" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28">
-        <v>174</v>
-      </c>
-      <c r="D14" s="28">
-        <v>8</v>
-      </c>
-      <c r="E14" s="28">
-        <v>15</v>
-      </c>
-      <c r="F14" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="32">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="29">
-        <v>13</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>3</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="28">
-        <v>30</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0</v>
-      </c>
-      <c r="F16" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="32">
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="29">
-        <v>183</v>
-      </c>
-      <c r="D17" s="29">
-        <v>3</v>
-      </c>
-      <c r="E17" s="29">
-        <v>25</v>
-      </c>
-      <c r="F17" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28">
-        <v>0</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="32">
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="30">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="28">
-        <v>3</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="32">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="30">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="28">
-        <v>38</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0</v>
-      </c>
-      <c r="E22" s="28">
-        <v>1</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="32">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="29">
-        <v>52</v>
-      </c>
-      <c r="D23" s="29">
-        <v>2</v>
-      </c>
-      <c r="E23" s="29">
-        <v>3</v>
-      </c>
-      <c r="F23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="30">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="28">
-        <v>36</v>
-      </c>
-      <c r="D24" s="28">
-        <v>6</v>
-      </c>
-      <c r="E24" s="28">
-        <v>2</v>
-      </c>
-      <c r="F24" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="32">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="29">
-        <v>56</v>
-      </c>
-      <c r="D25" s="29">
-        <v>10</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-      <c r="F25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="30">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="28">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28">
-        <v>1</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="32">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="29">
-        <v>54</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
-        <v>11</v>
-      </c>
-      <c r="F27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="34">
-        <v>27</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="35">
-        <v>17</v>
-      </c>
-      <c r="D28" s="35">
-        <v>0</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0</v>
-      </c>
-      <c r="F28" s="36">
-        <v>1</v>
+      <c r="F28" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2571,7 +2552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2579,60 +2562,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="F2" s="30"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
       <c r="A3" s="8">
@@ -3205,10 +3188,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="16">
         <v>104</v>
       </c>

--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>Name of State / UT</t>
   </si>
@@ -191,7 +191,7 @@
     <t>Total number of confirmed cases in India</t>
   </si>
   <si>
-    <t>31 March 2020, 20:30</t>
+    <t>10 April 2020, 17:00</t>
   </si>
 </sst>
 </file>
@@ -733,6 +733,25 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -753,25 +772,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,7 +990,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1028,142 +1028,142 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="35">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35">
-        <v>40</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="C2" s="25">
+        <v>363</v>
+      </c>
+      <c r="D2" s="25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="25">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="23">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="35">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="33">
-        <v>10</v>
-      </c>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="23">
+        <v>29</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31">
-        <v>15</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="C6" s="21">
+        <v>60</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33">
-        <v>13</v>
-      </c>
-      <c r="D5" s="33">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="31">
-        <v>8</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="33">
-        <v>97</v>
-      </c>
-      <c r="D7" s="33">
-        <v>6</v>
-      </c>
-      <c r="E7" s="33">
-        <v>2</v>
+      <c r="C7" s="23">
+        <v>18</v>
+      </c>
+      <c r="D7" s="23">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
       </c>
       <c r="F7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="31">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="31">
-        <v>5</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21">
         <v>0</v>
       </c>
       <c r="F8" s="18">
@@ -1171,39 +1171,39 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="33">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="33">
-        <v>73</v>
-      </c>
-      <c r="D9" s="33">
-        <v>3</v>
-      </c>
-      <c r="E9" s="33">
-        <v>6</v>
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
+        <v>898</v>
+      </c>
+      <c r="D9" s="23">
+        <v>25</v>
+      </c>
+      <c r="E9" s="23">
+        <v>13</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="31">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="31">
-        <v>40</v>
-      </c>
-      <c r="D10" s="31">
-        <v>21</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="B10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
         <v>0</v>
       </c>
       <c r="F10" s="18">
@@ -1211,369 +1211,445 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="33">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="23">
+        <v>241</v>
+      </c>
+      <c r="D11" s="23">
+        <v>26</v>
+      </c>
+      <c r="E11" s="23">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="21">
+        <v>169</v>
+      </c>
+      <c r="D12" s="21">
+        <v>29</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="33">
-        <v>3</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="C13" s="23">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23">
+        <v>6</v>
+      </c>
+      <c r="E13" s="23">
         <v>1</v>
       </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="31">
-        <v>54</v>
-      </c>
-      <c r="D12" s="31">
-        <v>2</v>
-      </c>
-      <c r="E12" s="31">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="33">
-        <v>83</v>
-      </c>
-      <c r="D13" s="33">
-        <v>5</v>
-      </c>
-      <c r="E13" s="33">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="31">
-        <v>234</v>
-      </c>
-      <c r="D14" s="31">
-        <v>19</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1</v>
+      <c r="C14" s="21">
+        <v>184</v>
+      </c>
+      <c r="D14" s="21">
+        <v>6</v>
+      </c>
+      <c r="E14" s="21">
+        <v>4</v>
       </c>
       <c r="F14" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="33">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="33">
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="23">
         <v>13</v>
       </c>
-      <c r="D15" s="33">
-        <v>3</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0</v>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
       </c>
       <c r="F15" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="31">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="31">
-        <v>47</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <v>3</v>
+      <c r="B16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="21">
+        <v>197</v>
+      </c>
+      <c r="D16" s="21">
+        <v>30</v>
+      </c>
+      <c r="E16" s="21">
+        <v>6</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="33">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="33">
-        <v>216</v>
-      </c>
-      <c r="D17" s="33">
-        <v>39</v>
-      </c>
-      <c r="E17" s="33">
-        <v>9</v>
+      <c r="B17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="23">
+        <v>357</v>
+      </c>
+      <c r="D17" s="23">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2</v>
       </c>
       <c r="F17" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="31">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21">
+        <v>15</v>
+      </c>
+      <c r="D18" s="21">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="23">
+        <v>259</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1364</v>
+      </c>
+      <c r="D20" s="21">
+        <v>125</v>
+      </c>
+      <c r="E20" s="21">
+        <v>97</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C21" s="23">
+        <v>2</v>
+      </c>
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34" t="s">
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C22" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="33">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="31">
-        <v>19</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="31">
-        <v>3</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0</v>
-      </c>
-      <c r="E20" s="31">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="C23" s="23">
+        <v>44</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23">
         <v>1</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="31">
-        <v>21</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="31">
-        <v>41</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31">
-        <v>3</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="33">
-        <v>74</v>
-      </c>
-      <c r="D23" s="33">
-        <v>3</v>
-      </c>
-      <c r="E23" s="33">
-        <v>0</v>
       </c>
       <c r="F23" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="31">
+      <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="31">
-        <v>74</v>
-      </c>
-      <c r="D24" s="31">
-        <v>4</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="B24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
+      <c r="D24" s="21">
         <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
       </c>
       <c r="F24" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="33">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="33">
-        <v>79</v>
-      </c>
-      <c r="D25" s="33">
-        <v>1</v>
-      </c>
-      <c r="E25" s="33">
-        <v>1</v>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="23">
+        <v>132</v>
+      </c>
+      <c r="D25" s="23">
+        <v>5</v>
+      </c>
+      <c r="E25" s="23">
+        <v>11</v>
       </c>
       <c r="F25" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="31">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="31">
-        <v>7</v>
-      </c>
-      <c r="D26" s="31">
-        <v>2</v>
-      </c>
-      <c r="E26" s="31">
-        <v>0</v>
+      <c r="B26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="21">
+        <v>463</v>
+      </c>
+      <c r="D26" s="21">
+        <v>21</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="33">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="33">
-        <v>101</v>
-      </c>
-      <c r="D27" s="33">
-        <v>14</v>
-      </c>
-      <c r="E27" s="33">
-        <v>0</v>
+      <c r="B27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="23">
+        <v>834</v>
+      </c>
+      <c r="D27" s="23">
+        <v>21</v>
+      </c>
+      <c r="E27" s="23">
+        <v>8</v>
       </c>
       <c r="F27" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="31">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="21">
+        <v>473</v>
+      </c>
+      <c r="D28" s="21">
+        <v>35</v>
+      </c>
+      <c r="E28" s="21">
+        <v>7</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="21">
+        <v>35</v>
+      </c>
+      <c r="D30" s="21">
+        <v>5</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="23">
+        <v>431</v>
+      </c>
+      <c r="D31" s="23">
+        <v>32</v>
+      </c>
+      <c r="E31" s="23">
+        <v>4</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="21">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="31">
-        <v>26</v>
-      </c>
-      <c r="D28" s="31">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31">
-        <v>2</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
+      <c r="C32" s="21">
+        <v>116</v>
+      </c>
+      <c r="D32" s="21">
+        <v>16</v>
+      </c>
+      <c r="E32" s="21">
+        <v>5</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2562,60 +2638,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="34" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="30" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="F2" s="37"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
       <c r="A3" s="8">
@@ -3188,10 +3264,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="16">
         <v>104</v>
       </c>

--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>Name of State / UT</t>
   </si>
@@ -127,10 +127,6 @@
     <t>Rajasthan</t>
   </si>
   <si>
-    <t>Cured/
-Discharged/Migrated</t>
-  </si>
-  <si>
     <t>Sikkim</t>
   </si>
   <si>
@@ -191,14 +187,20 @@
     <t>Total number of confirmed cases in India</t>
   </si>
   <si>
-    <t>10 April 2020, 17:00</t>
+    <t>Total Confirmed cases (Including 111 foreign Nationals)</t>
+  </si>
+  <si>
+    <t>02 May 2020, 17:00</t>
+  </si>
+  <si>
+    <t>Cured/Discharged/Migrated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,8 +261,14 @@
       <color rgb="FF4F514F"/>
       <name val="Robotoregular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Robotoregular"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +323,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F70CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -666,16 +680,25 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,24 +756,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -772,6 +777,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,685 +1007,704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
     <col min="7" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="32">
+        <v>33</v>
+      </c>
+      <c r="D2" s="32">
+        <v>16</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1525</v>
+      </c>
+      <c r="D3" s="33">
+        <v>441</v>
+      </c>
+      <c r="E3" s="33">
+        <v>33</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="33">
+        <v>43</v>
+      </c>
+      <c r="D5" s="33">
+        <v>32</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="32">
+        <v>471</v>
+      </c>
+      <c r="D6" s="32">
+        <v>98</v>
+      </c>
+      <c r="E6" s="32">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33">
+        <v>88</v>
+      </c>
+      <c r="D7" s="33">
+        <v>17</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="32">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32">
+        <v>43</v>
+      </c>
+      <c r="D8" s="32">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="25">
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="33">
+        <v>3738</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1167</v>
+      </c>
+      <c r="E9" s="33">
+        <v>61</v>
+      </c>
+      <c r="F9" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="32">
+        <v>7</v>
+      </c>
+      <c r="D10" s="32">
+        <v>7</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="33">
+        <v>4721</v>
+      </c>
+      <c r="D11" s="33">
+        <v>735</v>
+      </c>
+      <c r="E11" s="33">
+        <v>236</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="32">
+        <v>360</v>
+      </c>
+      <c r="D12" s="32">
+        <v>227</v>
+      </c>
+      <c r="E12" s="32">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="33">
+        <v>40</v>
+      </c>
+      <c r="D13" s="33">
+        <v>30</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="32">
+        <v>639</v>
+      </c>
+      <c r="D14" s="32">
+        <v>247</v>
+      </c>
+      <c r="E14" s="32">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="33">
+        <v>111</v>
+      </c>
+      <c r="D15" s="33">
+        <v>20</v>
+      </c>
+      <c r="E15" s="33">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="32">
+        <v>598</v>
+      </c>
+      <c r="D16" s="32">
+        <v>255</v>
+      </c>
+      <c r="E16" s="32">
+        <v>25</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="33">
+        <v>498</v>
+      </c>
+      <c r="D17" s="33">
+        <v>392</v>
+      </c>
+      <c r="E17" s="33">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="32">
+        <v>22</v>
+      </c>
+      <c r="D18" s="32">
+        <v>17</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2719</v>
+      </c>
+      <c r="D19" s="33">
+        <v>524</v>
+      </c>
+      <c r="E19" s="33">
+        <v>145</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="32">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="32">
+        <v>11506</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1879</v>
+      </c>
+      <c r="E20" s="32">
+        <v>485</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="33">
+        <v>2</v>
+      </c>
+      <c r="D21" s="33">
+        <v>2</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="32">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="32">
+        <v>12</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="32">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="32">
+        <v>154</v>
+      </c>
+      <c r="D24" s="32">
+        <v>55</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="33">
+        <v>8</v>
+      </c>
+      <c r="D25" s="33">
         <v>5</v>
       </c>
-      <c r="C2" s="25">
-        <v>363</v>
-      </c>
-      <c r="D2" s="25">
-        <v>7</v>
-      </c>
-      <c r="E2" s="25">
-        <v>6</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="23">
+      <c r="E25" s="33">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="32">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="32">
+        <v>772</v>
+      </c>
+      <c r="D26" s="32">
+        <v>112</v>
+      </c>
+      <c r="E26" s="32">
+        <v>20</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2666</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1116</v>
+      </c>
+      <c r="E27" s="33">
+        <v>62</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="32">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="32">
+        <v>2526</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1312</v>
+      </c>
+      <c r="E28" s="32">
+        <v>28</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="33">
+        <v>1057</v>
+      </c>
+      <c r="D29" s="33">
+        <v>441</v>
+      </c>
+      <c r="E29" s="33">
+        <v>26</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="32">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="23">
-        <v>11</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="23">
-        <v>29</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="21">
-        <v>60</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23">
-        <v>18</v>
-      </c>
-      <c r="D7" s="23">
-        <v>7</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="21">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21">
-        <v>9</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23">
-        <v>898</v>
-      </c>
-      <c r="D9" s="23">
-        <v>25</v>
-      </c>
-      <c r="E9" s="23">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="21">
-        <v>7</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="23">
-        <v>241</v>
-      </c>
-      <c r="D11" s="23">
-        <v>26</v>
-      </c>
-      <c r="E11" s="23">
-        <v>17</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="21">
-        <v>169</v>
-      </c>
-      <c r="D12" s="21">
-        <v>29</v>
-      </c>
-      <c r="E12" s="21">
-        <v>3</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23">
-        <v>28</v>
-      </c>
-      <c r="D13" s="23">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="21">
-        <v>184</v>
-      </c>
-      <c r="D14" s="21">
-        <v>6</v>
-      </c>
-      <c r="E14" s="21">
-        <v>4</v>
-      </c>
-      <c r="F14" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="23">
-        <v>13</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="21">
-        <v>197</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="D30" s="32">
+        <v>2</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="33">
         <v>30</v>
       </c>
-      <c r="E16" s="21">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="23">
-        <v>357</v>
-      </c>
-      <c r="D17" s="23">
-        <v>96</v>
-      </c>
-      <c r="E17" s="23">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="21">
-        <v>15</v>
-      </c>
-      <c r="D18" s="21">
-        <v>10</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="23">
-        <v>259</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>16</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="21">
-        <v>1364</v>
-      </c>
-      <c r="D20" s="21">
-        <v>125</v>
-      </c>
-      <c r="E20" s="21">
-        <v>97</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="23">
-        <v>2</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="21">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="23">
-        <v>44</v>
-      </c>
-      <c r="D23" s="23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="21">
-        <v>5</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="23">
-        <v>132</v>
-      </c>
-      <c r="D25" s="23">
-        <v>5</v>
-      </c>
-      <c r="E25" s="23">
-        <v>11</v>
-      </c>
-      <c r="F25" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="B31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="33">
+        <v>58</v>
+      </c>
+      <c r="D31" s="33">
+        <v>37</v>
+      </c>
+      <c r="E31" s="33">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2455</v>
+      </c>
+      <c r="D32" s="32">
+        <v>656</v>
+      </c>
+      <c r="E32" s="32">
+        <v>43</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="C26" s="21">
-        <v>463</v>
-      </c>
-      <c r="D26" s="21">
-        <v>21</v>
-      </c>
-      <c r="E26" s="21">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="23">
-        <v>834</v>
-      </c>
-      <c r="D27" s="23">
-        <v>21</v>
-      </c>
-      <c r="E27" s="23">
-        <v>8</v>
-      </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="21">
-        <v>473</v>
-      </c>
-      <c r="D28" s="21">
-        <v>35</v>
-      </c>
-      <c r="E28" s="21">
-        <v>7</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="B33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="21">
-        <v>35</v>
-      </c>
-      <c r="D30" s="21">
-        <v>5</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="23">
-        <v>431</v>
-      </c>
-      <c r="D31" s="23">
-        <v>32</v>
-      </c>
-      <c r="E31" s="23">
-        <v>4</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="21">
-        <v>116</v>
-      </c>
-      <c r="D32" s="21">
-        <v>16</v>
-      </c>
-      <c r="E32" s="21">
-        <v>5</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="C33" s="33">
+        <v>795</v>
+      </c>
+      <c r="D33" s="33">
+        <v>139</v>
+      </c>
+      <c r="E33" s="33">
+        <v>33</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2617,7 +2656,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2638,60 +2676,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
       <c r="A3" s="8">
@@ -2830,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="15">
         <v>2</v>
@@ -2926,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -3020,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
@@ -3040,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -3078,7 +3116,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9">
         <v>4</v>
@@ -3154,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="9">
         <v>4</v>
@@ -3172,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="11">
         <v>3</v>
@@ -3192,7 +3230,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13">
         <v>12</v>
@@ -3210,7 +3248,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="15">
         <v>7</v>
@@ -3230,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -3248,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="11">
         <v>1</v>
@@ -3264,10 +3302,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="29"/>
+      <c r="A18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="23"/>
       <c r="C18" s="16">
         <v>104</v>
       </c>
@@ -3304,7 +3342,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="11">
         <v>10</v>
@@ -3324,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="15">
         <v>18</v>
@@ -3344,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
@@ -3364,7 +3402,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="15">
         <v>1</v>
@@ -4697,7 +4735,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>27.3333303</v>
@@ -4708,7 +4746,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>18.112400000000001</v>
@@ -4719,7 +4757,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
         <v>12.92038576</v>
@@ -4730,7 +4768,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>23.835404279999999</v>
@@ -4741,7 +4779,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>27.599980689999999</v>
@@ -4752,7 +4790,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
         <v>30.320408950000001</v>
@@ -4763,7 +4801,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>22.580390439999999</v>
@@ -4774,7 +4812,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
         <v>34.1</v>

--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -17,16 +17,11 @@
     <sheet name="Cordinates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjSO3tthuhd3W2D0tCQiQJqhcRF9Q=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>Name of State / UT</t>
   </si>
@@ -187,20 +182,18 @@
     <t>Total number of confirmed cases in India</t>
   </si>
   <si>
-    <t>Total Confirmed cases (Including 111 foreign Nationals)</t>
-  </si>
-  <si>
     <t>02 May 2020, 17:00</t>
   </si>
   <si>
-    <t>Cured/Discharged/Migrated</t>
+    <t>Cured/
+Discharged/Migrated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,14 +254,8 @@
       <color rgb="FF4F514F"/>
       <name val="Robotoregular"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Robotoregular"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,14 +310,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0F70CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -670,41 +651,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -757,6 +710,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -777,21 +736,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1025,668 +973,668 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="34" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1525</v>
+      </c>
+      <c r="D3" s="21">
+        <v>441</v>
+      </c>
+      <c r="E3" s="21">
+        <v>33</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21">
+        <v>43</v>
+      </c>
+      <c r="D5" s="21">
+        <v>32</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20">
+        <v>471</v>
+      </c>
+      <c r="D6" s="20">
+        <v>98</v>
+      </c>
+      <c r="E6" s="20">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21">
+        <v>88</v>
+      </c>
+      <c r="D7" s="21">
+        <v>17</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43</v>
+      </c>
+      <c r="D8" s="20">
+        <v>36</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3738</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1167</v>
+      </c>
+      <c r="E9" s="21">
+        <v>61</v>
+      </c>
+      <c r="F9" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="20">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20">
+        <v>7</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4721</v>
+      </c>
+      <c r="D11" s="21">
+        <v>735</v>
+      </c>
+      <c r="E11" s="21">
+        <v>236</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20">
+        <v>360</v>
+      </c>
+      <c r="D12" s="20">
+        <v>227</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="20">
+        <v>639</v>
+      </c>
+      <c r="D14" s="20">
+        <v>247</v>
+      </c>
+      <c r="E14" s="20">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="21">
+        <v>111</v>
+      </c>
+      <c r="D15" s="21">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="20">
+        <v>598</v>
+      </c>
+      <c r="D16" s="20">
+        <v>255</v>
+      </c>
+      <c r="E16" s="20">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21">
+        <v>498</v>
+      </c>
+      <c r="D17" s="21">
+        <v>392</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20">
+        <v>22</v>
+      </c>
+      <c r="D18" s="20">
+        <v>17</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2719</v>
+      </c>
+      <c r="D19" s="21">
+        <v>524</v>
+      </c>
+      <c r="E19" s="21">
+        <v>145</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20">
+        <v>11506</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1879</v>
+      </c>
+      <c r="E20" s="20">
+        <v>485</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="20">
+        <v>12</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="20">
+        <v>154</v>
+      </c>
+      <c r="D24" s="20">
         <v>55</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
+      <c r="D25" s="21">
+        <v>5</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="20">
+        <v>772</v>
+      </c>
+      <c r="D26" s="20">
+        <v>112</v>
+      </c>
+      <c r="E26" s="20">
+        <v>20</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2666</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1116</v>
+      </c>
+      <c r="E27" s="21">
+        <v>62</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2526</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1312</v>
+      </c>
+      <c r="E28" s="20">
+        <v>28</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="21">
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1057</v>
+      </c>
+      <c r="D29" s="21">
+        <v>441</v>
+      </c>
+      <c r="E29" s="21">
+        <v>26</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="20">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="21">
+        <v>58</v>
+      </c>
+      <c r="D31" s="21">
+        <v>37</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="B32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="20">
+        <v>2455</v>
+      </c>
+      <c r="D32" s="20">
+        <v>656</v>
+      </c>
+      <c r="E32" s="20">
+        <v>43</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="21">
+        <v>795</v>
+      </c>
+      <c r="D33" s="21">
+        <v>139</v>
+      </c>
+      <c r="E33" s="21">
         <v>33</v>
       </c>
-      <c r="D2" s="32">
-        <v>16</v>
-      </c>
-      <c r="E2" s="32">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="33">
-        <v>1525</v>
-      </c>
-      <c r="D3" s="33">
-        <v>441</v>
-      </c>
-      <c r="E3" s="33">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="33">
-        <v>43</v>
-      </c>
-      <c r="D5" s="33">
-        <v>32</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="32">
-        <v>471</v>
-      </c>
-      <c r="D6" s="32">
-        <v>98</v>
-      </c>
-      <c r="E6" s="32">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="33">
-        <v>88</v>
-      </c>
-      <c r="D7" s="33">
-        <v>17</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="32">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="32">
-        <v>43</v>
-      </c>
-      <c r="D8" s="32">
-        <v>36</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="33">
-        <v>3738</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1167</v>
-      </c>
-      <c r="E9" s="33">
-        <v>61</v>
-      </c>
-      <c r="F9" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="32">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="32">
-        <v>7</v>
-      </c>
-      <c r="D10" s="32">
-        <v>7</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="33">
-        <v>4721</v>
-      </c>
-      <c r="D11" s="33">
-        <v>735</v>
-      </c>
-      <c r="E11" s="33">
-        <v>236</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="32">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="32">
-        <v>360</v>
-      </c>
-      <c r="D12" s="32">
-        <v>227</v>
-      </c>
-      <c r="E12" s="32">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="33">
-        <v>40</v>
-      </c>
-      <c r="D13" s="33">
-        <v>30</v>
-      </c>
-      <c r="E13" s="33">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="32">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="32">
-        <v>639</v>
-      </c>
-      <c r="D14" s="32">
-        <v>247</v>
-      </c>
-      <c r="E14" s="32">
-        <v>8</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="33">
-        <v>111</v>
-      </c>
-      <c r="D15" s="33">
-        <v>20</v>
-      </c>
-      <c r="E15" s="33">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="32">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="32">
-        <v>598</v>
-      </c>
-      <c r="D16" s="32">
-        <v>255</v>
-      </c>
-      <c r="E16" s="32">
-        <v>25</v>
-      </c>
-      <c r="F16" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="33">
-        <v>498</v>
-      </c>
-      <c r="D17" s="33">
-        <v>392</v>
-      </c>
-      <c r="E17" s="33">
-        <v>4</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="32">
-        <v>17</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="32">
-        <v>22</v>
-      </c>
-      <c r="D18" s="32">
-        <v>17</v>
-      </c>
-      <c r="E18" s="32">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="33">
-        <v>2719</v>
-      </c>
-      <c r="D19" s="33">
-        <v>524</v>
-      </c>
-      <c r="E19" s="33">
-        <v>145</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="32">
-        <v>19</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="32">
-        <v>11506</v>
-      </c>
-      <c r="D20" s="32">
-        <v>1879</v>
-      </c>
-      <c r="E20" s="32">
-        <v>485</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="33">
-        <v>2</v>
-      </c>
-      <c r="D21" s="33">
-        <v>2</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="32">
-        <v>21</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="32">
-        <v>12</v>
-      </c>
-      <c r="D22" s="32">
-        <v>0</v>
-      </c>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="32">
-        <v>23</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="32">
-        <v>154</v>
-      </c>
-      <c r="D24" s="32">
-        <v>55</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="33">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="33">
-        <v>8</v>
-      </c>
-      <c r="D25" s="33">
-        <v>5</v>
-      </c>
-      <c r="E25" s="33">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="32">
-        <v>25</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="32">
-        <v>772</v>
-      </c>
-      <c r="D26" s="32">
-        <v>112</v>
-      </c>
-      <c r="E26" s="32">
-        <v>20</v>
-      </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="33">
-        <v>2666</v>
-      </c>
-      <c r="D27" s="33">
-        <v>1116</v>
-      </c>
-      <c r="E27" s="33">
-        <v>62</v>
-      </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="32">
-        <v>27</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="32">
-        <v>2526</v>
-      </c>
-      <c r="D28" s="32">
-        <v>1312</v>
-      </c>
-      <c r="E28" s="32">
-        <v>28</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="33">
-        <v>28</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="33">
-        <v>1057</v>
-      </c>
-      <c r="D29" s="33">
-        <v>441</v>
-      </c>
-      <c r="E29" s="33">
-        <v>26</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="32">
-        <v>29</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="32">
-        <v>2</v>
-      </c>
-      <c r="D30" s="32">
-        <v>2</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="33">
-        <v>30</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="33">
-        <v>58</v>
-      </c>
-      <c r="D31" s="33">
-        <v>37</v>
-      </c>
-      <c r="E31" s="33">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="32">
-        <v>2455</v>
-      </c>
-      <c r="D32" s="32">
-        <v>656</v>
-      </c>
-      <c r="E32" s="32">
-        <v>43</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="33">
-        <v>795</v>
-      </c>
-      <c r="D33" s="33">
-        <v>139</v>
-      </c>
-      <c r="E33" s="33">
-        <v>33</v>
-      </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2688,7 +2636,7 @@
       <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="30" t="s">
@@ -2706,7 +2654,7 @@
       <c r="K1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="24" t="s">
@@ -2718,7 +2666,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="31"/>
@@ -2726,578 +2674,578 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>2</v>
       </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>14</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>16</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>8</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>14</v>
       </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>36</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>6</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>15</v>
       </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>26</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>2</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>8</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>44</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>3</v>
       </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <v>9</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>1</v>
       </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <v>10</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <v>1</v>
       </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <v>11</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>2</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>3</v>
       </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <v>12</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>5</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <v>2</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <v>3</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>13</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
         <v>1</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>12</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>4</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <v>14</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>7</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <v>9</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <v>1</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <v>15</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3306,114 +3254,114 @@
         <v>52</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>104</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>22</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>13</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>16</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>4</v>
       </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>17</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <v>10</v>
       </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>18</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>18</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <v>1</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="13">
         <v>9</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>19</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <v>20</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <v>1</v>
       </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
         <v>0</v>
       </c>
     </row>

--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
   <si>
     <t>Name of State / UT</t>
   </si>
@@ -180,13 +180,16 @@
   </si>
   <si>
     <t>Total number of confirmed cases in India</t>
-  </si>
-  <si>
-    <t>02 May 2020, 17:00</t>
   </si>
   <si>
     <t>Cured/
 Discharged/Migrated</t>
+  </si>
+  <si>
+    <t>Dadar Nagar Haveli</t>
+  </si>
+  <si>
+    <t>15 May 2020, 08:00</t>
   </si>
 </sst>
 </file>
@@ -244,15 +247,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF4F514F"/>
       <name val="Robotoregular"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF4F514F"/>
-      <name val="Robotoregular"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -311,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -651,11 +655,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,13 +728,11 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -736,10 +753,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -973,85 +995,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="20">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="34">
         <v>33</v>
       </c>
-      <c r="D2" s="20">
-        <v>16</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="34">
+        <v>33</v>
+      </c>
+      <c r="E2" s="34">
         <v>0</v>
       </c>
       <c r="F2" s="17">
         <v>0</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="21">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
-        <v>1525</v>
-      </c>
-      <c r="D3" s="21">
-        <v>441</v>
-      </c>
-      <c r="E3" s="21">
-        <v>33</v>
+      <c r="C3" s="33">
+        <v>2205</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1192</v>
+      </c>
+      <c r="E3" s="33">
+        <v>48</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="20">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="32">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="32">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="32">
         <v>0</v>
       </c>
       <c r="F4" s="17">
@@ -1059,79 +1081,79 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="21">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21">
-        <v>43</v>
-      </c>
-      <c r="D5" s="21">
-        <v>32</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
+      <c r="C5" s="33">
+        <v>87</v>
+      </c>
+      <c r="D5" s="33">
+        <v>39</v>
+      </c>
+      <c r="E5" s="33">
+        <v>2</v>
       </c>
       <c r="F5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="20">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20">
-        <v>471</v>
-      </c>
-      <c r="D6" s="20">
-        <v>98</v>
-      </c>
-      <c r="E6" s="20">
-        <v>3</v>
+      <c r="C6" s="32">
+        <v>994</v>
+      </c>
+      <c r="D6" s="32">
+        <v>411</v>
+      </c>
+      <c r="E6" s="32">
+        <v>7</v>
       </c>
       <c r="F6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="21">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21">
-        <v>88</v>
-      </c>
-      <c r="D7" s="21">
-        <v>17</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
+      <c r="C7" s="33">
+        <v>191</v>
+      </c>
+      <c r="D7" s="33">
+        <v>37</v>
+      </c>
+      <c r="E7" s="33">
+        <v>3</v>
       </c>
       <c r="F7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="20">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20">
-        <v>43</v>
-      </c>
-      <c r="D8" s="20">
-        <v>36</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="C8" s="32">
+        <v>60</v>
+      </c>
+      <c r="D8" s="32">
+        <v>56</v>
+      </c>
+      <c r="E8" s="32">
         <v>0</v>
       </c>
       <c r="F8" s="17">
@@ -1139,506 +1161,525 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="21">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="21">
-        <v>3738</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1167</v>
-      </c>
-      <c r="E9" s="21">
-        <v>61</v>
+      <c r="B9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
       </c>
       <c r="F9" s="16">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="20">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8470</v>
+      </c>
+      <c r="D10" s="32">
+        <v>3045</v>
+      </c>
+      <c r="E10" s="32">
+        <v>115</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C11" s="33">
+        <v>14</v>
+      </c>
+      <c r="D11" s="33">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="21">
-        <v>4721</v>
-      </c>
-      <c r="D11" s="21">
-        <v>735</v>
-      </c>
-      <c r="E11" s="21">
-        <v>236</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="20">
+      <c r="C12" s="32">
+        <v>9591</v>
+      </c>
+      <c r="D12" s="32">
+        <v>3753</v>
+      </c>
+      <c r="E12" s="32">
+        <v>586</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="33">
+        <v>818</v>
+      </c>
+      <c r="D13" s="33">
+        <v>439</v>
+      </c>
+      <c r="E13" s="33">
         <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20">
-        <v>360</v>
-      </c>
-      <c r="D12" s="20">
-        <v>227</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21">
-        <v>40</v>
-      </c>
-      <c r="D13" s="21">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
       </c>
       <c r="F13" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="20">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="32">
+        <v>74</v>
+      </c>
+      <c r="D14" s="32">
+        <v>39</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="20">
-        <v>639</v>
-      </c>
-      <c r="D14" s="20">
-        <v>247</v>
-      </c>
-      <c r="E14" s="20">
-        <v>8</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="33">
+        <v>983</v>
+      </c>
+      <c r="D15" s="33">
+        <v>485</v>
+      </c>
+      <c r="E15" s="33">
+        <v>11</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21">
-        <v>111</v>
-      </c>
-      <c r="D15" s="21">
-        <v>20</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="C16" s="32">
+        <v>197</v>
+      </c>
+      <c r="D16" s="32">
+        <v>87</v>
+      </c>
+      <c r="E16" s="32">
         <v>3</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="20">
-        <v>598</v>
-      </c>
-      <c r="D16" s="20">
-        <v>255</v>
-      </c>
-      <c r="E16" s="20">
-        <v>25</v>
       </c>
       <c r="F16" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="21">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="33">
+        <v>987</v>
+      </c>
+      <c r="D17" s="33">
+        <v>460</v>
+      </c>
+      <c r="E17" s="33">
+        <v>35</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21">
-        <v>498</v>
-      </c>
-      <c r="D17" s="21">
-        <v>392</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="C18" s="32">
+        <v>560</v>
+      </c>
+      <c r="D18" s="32">
+        <v>491</v>
+      </c>
+      <c r="E18" s="32">
         <v>4</v>
       </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="20">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C19" s="33">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33">
         <v>22</v>
       </c>
-      <c r="D18" s="20">
-        <v>17</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="32">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21">
-        <v>2719</v>
-      </c>
-      <c r="D19" s="21">
-        <v>524</v>
-      </c>
-      <c r="E19" s="21">
-        <v>145</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="C20" s="32">
+        <v>4426</v>
+      </c>
+      <c r="D20" s="32">
+        <v>2171</v>
+      </c>
+      <c r="E20" s="32">
+        <v>237</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="20">
-        <v>11506</v>
-      </c>
-      <c r="D20" s="20">
-        <v>1879</v>
-      </c>
-      <c r="E20" s="20">
-        <v>485</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="33">
+        <v>27524</v>
+      </c>
+      <c r="D21" s="33">
+        <v>6059</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1019</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="32">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="20">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="20">
-        <v>12</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
+      <c r="E22" s="32">
+        <v>0</v>
       </c>
       <c r="F22" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="21">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="33">
+        <v>13</v>
+      </c>
+      <c r="D23" s="33">
+        <v>11</v>
+      </c>
+      <c r="E23" s="33">
         <v>1</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
       </c>
       <c r="F23" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="20">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="20">
-        <v>154</v>
-      </c>
-      <c r="D24" s="20">
-        <v>55</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="B24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="32">
         <v>1</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
       </c>
       <c r="F24" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="21">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="21">
-        <v>8</v>
-      </c>
-      <c r="D25" s="21">
-        <v>5</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
+      <c r="B25" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="33">
+        <v>611</v>
+      </c>
+      <c r="D25" s="33">
+        <v>158</v>
+      </c>
+      <c r="E25" s="33">
+        <v>3</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="20">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20">
-        <v>772</v>
-      </c>
-      <c r="D26" s="20">
-        <v>112</v>
-      </c>
-      <c r="E26" s="20">
-        <v>20</v>
+      <c r="B26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="32">
+        <v>13</v>
+      </c>
+      <c r="D26" s="32">
+        <v>9</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1</v>
       </c>
       <c r="F26" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="21">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1935</v>
+      </c>
+      <c r="D27" s="33">
+        <v>223</v>
+      </c>
+      <c r="E27" s="33">
         <v>32</v>
       </c>
-      <c r="C27" s="21">
-        <v>2666</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1116</v>
-      </c>
-      <c r="E27" s="21">
-        <v>62</v>
-      </c>
       <c r="F27" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="20">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="32">
+        <v>4534</v>
+      </c>
+      <c r="D28" s="32">
+        <v>2580</v>
+      </c>
+      <c r="E28" s="32">
+        <v>125</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="20">
-        <v>2526</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1312</v>
-      </c>
-      <c r="E28" s="20">
-        <v>28</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="21">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="33">
+        <v>9674</v>
+      </c>
+      <c r="D29" s="33">
+        <v>2240</v>
+      </c>
+      <c r="E29" s="33">
+        <v>66</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="32">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="21">
-        <v>1057</v>
-      </c>
-      <c r="D29" s="21">
-        <v>441</v>
-      </c>
-      <c r="E29" s="21">
-        <v>26</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="20">
+      <c r="C30" s="32">
+        <v>1414</v>
+      </c>
+      <c r="D30" s="32">
+        <v>950</v>
+      </c>
+      <c r="E30" s="32">
+        <v>34</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="33">
+        <v>156</v>
+      </c>
+      <c r="D31" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="20">
-        <v>2</v>
-      </c>
-      <c r="D30" s="20">
-        <v>2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="E31" s="33">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="21">
-        <v>58</v>
-      </c>
-      <c r="D31" s="21">
-        <v>37</v>
-      </c>
-      <c r="E31" s="21">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="20">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="32">
+        <v>78</v>
+      </c>
+      <c r="D32" s="32">
+        <v>50</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="20">
-        <v>2455</v>
-      </c>
-      <c r="D32" s="20">
-        <v>656</v>
-      </c>
-      <c r="E32" s="20">
-        <v>43</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21" t="s">
+      <c r="C33" s="33">
+        <v>3902</v>
+      </c>
+      <c r="D33" s="33">
+        <v>2072</v>
+      </c>
+      <c r="E33" s="33">
+        <v>88</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21">
-        <v>795</v>
-      </c>
-      <c r="D33" s="21">
-        <v>139</v>
-      </c>
-      <c r="E33" s="21">
-        <v>33</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1"/>
+      <c r="C34" s="32">
+        <v>2377</v>
+      </c>
+      <c r="D34" s="32">
+        <v>768</v>
+      </c>
+      <c r="E34" s="32">
+        <v>215</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="36" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:6" ht="15.75" customHeight="1"/>

--- a/Covid - India.xlsx
+++ b/Covid - India.xlsx
@@ -189,7 +189,7 @@
     <t>Dadar Nagar Haveli</t>
   </si>
   <si>
-    <t>15 May 2020, 08:00</t>
+    <t>17 May 2020, 08:00</t>
   </si>
 </sst>
 </file>
@@ -733,6 +733,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -753,15 +762,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,15 +979,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
@@ -1018,19 +1018,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="34">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="24">
         <v>33</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="24">
         <v>33</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="24">
         <v>0</v>
       </c>
       <c r="F2" s="17">
@@ -1041,39 +1041,39 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="33">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33">
-        <v>2205</v>
-      </c>
-      <c r="D3" s="33">
-        <v>1192</v>
-      </c>
-      <c r="E3" s="33">
-        <v>48</v>
+      <c r="C3" s="23">
+        <v>2355</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1353</v>
+      </c>
+      <c r="E3" s="23">
+        <v>49</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="32">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="22">
         <v>0</v>
       </c>
       <c r="F4" s="17">
@@ -1081,19 +1081,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="33">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33">
-        <v>87</v>
-      </c>
-      <c r="D5" s="33">
-        <v>39</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="C5" s="23">
+        <v>92</v>
+      </c>
+      <c r="D5" s="23">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23">
         <v>2</v>
       </c>
       <c r="F5" s="16">
@@ -1101,19 +1101,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="32">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32">
-        <v>994</v>
-      </c>
-      <c r="D6" s="32">
-        <v>411</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="C6" s="22">
+        <v>1179</v>
+      </c>
+      <c r="D6" s="22">
+        <v>453</v>
+      </c>
+      <c r="E6" s="22">
         <v>7</v>
       </c>
       <c r="F6" s="17">
@@ -1121,19 +1121,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="33">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="23">
         <v>191</v>
       </c>
-      <c r="D7" s="33">
-        <v>37</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="23">
+        <v>51</v>
+      </c>
+      <c r="E7" s="23">
         <v>3</v>
       </c>
       <c r="F7" s="16">
@@ -1141,19 +1141,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="32">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32">
-        <v>60</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="C8" s="22">
+        <v>67</v>
+      </c>
+      <c r="D8" s="22">
         <v>56</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="22">
         <v>0</v>
       </c>
       <c r="F8" s="17">
@@ -1161,19 +1161,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="33">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
         <v>0</v>
       </c>
       <c r="F9" s="16">
@@ -1181,139 +1181,139 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="32">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="32">
-        <v>8470</v>
-      </c>
-      <c r="D10" s="32">
-        <v>3045</v>
-      </c>
-      <c r="E10" s="32">
-        <v>115</v>
+      <c r="C10" s="22">
+        <v>9333</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3926</v>
+      </c>
+      <c r="E10" s="22">
+        <v>129</v>
       </c>
       <c r="F10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="33">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="23">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22">
+        <v>10988</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4308</v>
+      </c>
+      <c r="E12" s="22">
+        <v>625</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="33">
-        <v>7</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="32">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="32">
-        <v>9591</v>
-      </c>
-      <c r="D12" s="32">
-        <v>3753</v>
-      </c>
-      <c r="E12" s="32">
-        <v>586</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="33">
-        <v>818</v>
-      </c>
-      <c r="D13" s="33">
-        <v>439</v>
-      </c>
-      <c r="E13" s="33">
-        <v>11</v>
+      <c r="C13" s="23">
+        <v>887</v>
+      </c>
+      <c r="D13" s="23">
+        <v>514</v>
+      </c>
+      <c r="E13" s="23">
+        <v>13</v>
       </c>
       <c r="F13" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="32">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32">
-        <v>74</v>
-      </c>
-      <c r="D14" s="32">
-        <v>39</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2</v>
+      <c r="C14" s="22">
+        <v>78</v>
+      </c>
+      <c r="D14" s="22">
+        <v>43</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="33">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="33">
-        <v>983</v>
-      </c>
-      <c r="D15" s="33">
-        <v>485</v>
-      </c>
-      <c r="E15" s="33">
-        <v>11</v>
+      <c r="C15" s="23">
+        <v>1121</v>
+      </c>
+      <c r="D15" s="23">
+        <v>542</v>
+      </c>
+      <c r="E15" s="23">
+        <v>12</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="32">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="32">
-        <v>197</v>
-      </c>
-      <c r="D16" s="32">
-        <v>87</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="C16" s="22">
+        <v>217</v>
+      </c>
+      <c r="D16" s="22">
+        <v>113</v>
+      </c>
+      <c r="E16" s="22">
         <v>3</v>
       </c>
       <c r="F16" s="17">
@@ -1321,39 +1321,39 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="33">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33">
-        <v>987</v>
-      </c>
-      <c r="D17" s="33">
-        <v>460</v>
-      </c>
-      <c r="E17" s="33">
-        <v>35</v>
+      <c r="C17" s="23">
+        <v>1092</v>
+      </c>
+      <c r="D17" s="23">
+        <v>496</v>
+      </c>
+      <c r="E17" s="23">
+        <v>36</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="32">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="32">
-        <v>560</v>
-      </c>
-      <c r="D18" s="32">
-        <v>491</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="C18" s="22">
+        <v>587</v>
+      </c>
+      <c r="D18" s="22">
+        <v>495</v>
+      </c>
+      <c r="E18" s="22">
         <v>4</v>
       </c>
       <c r="F18" s="17">
@@ -1361,19 +1361,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="33">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="23">
         <v>43</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="23">
         <v>22</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="23">
         <v>0</v>
       </c>
       <c r="F19" s="16">
@@ -1381,59 +1381,59 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="32">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="32">
-        <v>4426</v>
-      </c>
-      <c r="D20" s="32">
-        <v>2171</v>
-      </c>
-      <c r="E20" s="32">
-        <v>237</v>
+      <c r="C20" s="22">
+        <v>4789</v>
+      </c>
+      <c r="D20" s="22">
+        <v>2315</v>
+      </c>
+      <c r="E20" s="22">
+        <v>243</v>
       </c>
       <c r="F20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="33">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="33">
-        <v>27524</v>
-      </c>
-      <c r="D21" s="33">
-        <v>6059</v>
-      </c>
-      <c r="E21" s="33">
-        <v>1019</v>
+      <c r="C21" s="23">
+        <v>30706</v>
+      </c>
+      <c r="D21" s="23">
+        <v>7088</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1135</v>
       </c>
       <c r="F21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="32">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32">
-        <v>3</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="C22" s="22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="22">
         <v>2</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="22">
         <v>0</v>
       </c>
       <c r="F22" s="17">
@@ -1441,19 +1441,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="33">
+      <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="23">
         <v>13</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="23">
         <v>11</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="23">
         <v>1</v>
       </c>
       <c r="F23" s="16">
@@ -1461,19 +1461,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="32">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="22">
         <v>1</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="22">
         <v>0</v>
       </c>
       <c r="F24" s="17">
@@ -1481,19 +1481,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="33">
+      <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="33">
-        <v>611</v>
-      </c>
-      <c r="D25" s="33">
-        <v>158</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="C25" s="23">
+        <v>737</v>
+      </c>
+      <c r="D25" s="23">
+        <v>196</v>
+      </c>
+      <c r="E25" s="23">
         <v>3</v>
       </c>
       <c r="F25" s="16">
@@ -1501,19 +1501,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="32">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="22">
         <v>13</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="22">
         <v>9</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="22">
         <v>1</v>
       </c>
       <c r="F26" s="17">
@@ -1521,19 +1521,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="33">
+      <c r="A27" s="23">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="33">
-        <v>1935</v>
-      </c>
-      <c r="D27" s="33">
-        <v>223</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="C27" s="23">
+        <v>1946</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1257</v>
+      </c>
+      <c r="E27" s="23">
         <v>32</v>
       </c>
       <c r="F27" s="18">
@@ -1541,59 +1541,59 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="32">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="32">
-        <v>4534</v>
-      </c>
-      <c r="D28" s="32">
-        <v>2580</v>
-      </c>
-      <c r="E28" s="32">
-        <v>125</v>
+      <c r="C28" s="22">
+        <v>4960</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2839</v>
+      </c>
+      <c r="E28" s="22">
+        <v>126</v>
       </c>
       <c r="F28" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="33">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="33">
-        <v>9674</v>
-      </c>
-      <c r="D29" s="33">
-        <v>2240</v>
-      </c>
-      <c r="E29" s="33">
-        <v>66</v>
+      <c r="C29" s="23">
+        <v>10585</v>
+      </c>
+      <c r="D29" s="23">
+        <v>3538</v>
+      </c>
+      <c r="E29" s="23">
+        <v>74</v>
       </c>
       <c r="F29" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="32">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="32">
-        <v>1414</v>
-      </c>
-      <c r="D30" s="32">
-        <v>950</v>
-      </c>
-      <c r="E30" s="32">
+      <c r="C30" s="22">
+        <v>1509</v>
+      </c>
+      <c r="D30" s="22">
+        <v>971</v>
+      </c>
+      <c r="E30" s="22">
         <v>34</v>
       </c>
       <c r="F30" s="18">
@@ -1601,19 +1601,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A31" s="33">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="33">
-        <v>156</v>
-      </c>
-      <c r="D31" s="33">
-        <v>29</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="C31" s="23">
+        <v>167</v>
+      </c>
+      <c r="D31" s="23">
+        <v>64</v>
+      </c>
+      <c r="E31" s="23">
         <v>0</v>
       </c>
       <c r="F31" s="18">
@@ -1621,19 +1621,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="32">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="32">
-        <v>78</v>
-      </c>
-      <c r="D32" s="32">
-        <v>50</v>
-      </c>
-      <c r="E32" s="32">
+      <c r="C32" s="22">
+        <v>88</v>
+      </c>
+      <c r="D32" s="22">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22">
         <v>1</v>
       </c>
       <c r="F32" s="18">
@@ -1641,40 +1641,40 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="33">
+      <c r="A33" s="23">
         <v>32</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="33">
-        <v>3902</v>
-      </c>
-      <c r="D33" s="33">
-        <v>2072</v>
-      </c>
-      <c r="E33" s="33">
-        <v>88</v>
+      <c r="C33" s="23">
+        <v>4258</v>
+      </c>
+      <c r="D33" s="23">
+        <v>2441</v>
+      </c>
+      <c r="E33" s="23">
+        <v>104</v>
       </c>
       <c r="F33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="32">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="32">
-        <v>2377</v>
-      </c>
-      <c r="D34" s="32">
-        <v>768</v>
-      </c>
-      <c r="E34" s="32">
-        <v>215</v>
+      <c r="C34" s="22">
+        <v>2576</v>
+      </c>
+      <c r="D34" s="22">
+        <v>872</v>
+      </c>
+      <c r="E34" s="22">
+        <v>232</v>
       </c>
       <c r="F34" s="18">
         <v>0</v>
@@ -2665,60 +2665,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="F2" s="34"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1">
       <c r="A3" s="6">
@@ -3291,10 +3291,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="14">
         <v>104</v>
       </c>
